--- a/20241017进度.xlsx
+++ b/20241017进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C8B62-1199-4FE5-90E5-CEE45E2E56B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E420F3-DFE9-477D-A2DD-4B79AEF32AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="3300" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="7740" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>yolo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,72 +91,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DIOR（已解压已合并）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASATI（已解压合并，部分没标签文件？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-MAR（已解压,只用了Horizontal）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARPK[已转yolo]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别              数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COWC</t>
+  </si>
+  <si>
+    <t>AIR-SARship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIR1M</t>
+  </si>
+  <si>
+    <t>SAR-Ship-Dataset</t>
+  </si>
+  <si>
+    <t>HRSC2016(bmp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NWPU_VHR-10(已转yolo汇总)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCAS_AOD（？？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OIRDS（？？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZTAKI-INRIA（？？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEDAI（已解压&amp;&amp;格式未知）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geojson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DOTA（使用2.0||图像和标签文件数目对不上||官网上就数量不一致）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIOR（已解压已合并）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MASATI（已解压合并，部分没标签文件？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIR1M【tiff标注不是bndbox】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIR-SARship【tiff标注不是bndbox】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-MAR（已解压,只用了Horizontal）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARPK[已转yolo]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别              数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COWC</t>
-  </si>
-  <si>
-    <t>AIR-SARship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIR1M</t>
-  </si>
-  <si>
-    <t>SAR-Ship-Dataset</t>
-  </si>
-  <si>
-    <t>HRSC2016(bmp)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NWPU_VHR-10(已转yolo汇总)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCAS_AOD（？？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OIRDS（？？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZTAKI-INRIA（？？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEDAI（已解压&amp;&amp;格式未知）</t>
+  </si>
+  <si>
+    <t>AIR-SARship【tiff标注不是bndbox,框是菱形,已得xmin xmax ymin ymax】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIR1M【tiff标注不是bndbox,框是菱形,已得xmin xmax ymin ymax】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +228,21 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -295,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -345,6 +363,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -625,22 +658,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="64.75" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="3" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="64.75" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,28 +684,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -680,137 +717,149 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="13"/>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="B4" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="20"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="F16" s="18">
+        <v>45371</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="18">
-        <v>45371</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>1</v>
       </c>
@@ -820,8 +869,9 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>2</v>
       </c>
@@ -831,8 +881,9 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>3</v>
       </c>
@@ -842,8 +893,9 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>4</v>
       </c>
@@ -853,8 +905,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>5</v>
       </c>
@@ -864,8 +917,9 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>6</v>
       </c>
@@ -875,8 +929,9 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>7</v>
       </c>
@@ -886,8 +941,9 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>8</v>
       </c>
@@ -897,8 +953,9 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>9</v>
       </c>
@@ -908,8 +965,9 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>10</v>
       </c>
@@ -919,8 +977,9 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>11</v>
       </c>
@@ -930,8 +989,9 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>12</v>
       </c>
@@ -941,8 +1001,9 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>13</v>
       </c>
@@ -952,8 +1013,9 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>14</v>
       </c>
@@ -963,8 +1025,9 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>15</v>
       </c>
@@ -974,8 +1037,9 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>16</v>
       </c>
@@ -985,8 +1049,9 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>17</v>
       </c>
@@ -996,8 +1061,9 @@
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>18</v>
       </c>
@@ -1007,8 +1073,9 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>19</v>
       </c>
@@ -1018,8 +1085,9 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>20</v>
       </c>
@@ -1029,8 +1097,9 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>21</v>
       </c>
@@ -1040,6 +1109,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
